--- a/JWorkflow/Design DB and Behavior.xlsx
+++ b/JWorkflow/Design DB and Behavior.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="105" windowWidth="27795" windowHeight="12585"/>
+    <workbookView xWindow="480" yWindow="105" windowWidth="27795" windowHeight="12585" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet3" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
@@ -19,7 +20,7 @@
     <author>Sorasak Srirussamee</author>
   </authors>
   <commentList>
-    <comment ref="AB6" authorId="0">
+    <comment ref="AB7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -44,7 +45,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AB22" authorId="0">
+    <comment ref="AB23" authorId="0">
       <text>
         <r>
           <rPr>
@@ -69,7 +70,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AD22" authorId="0">
+    <comment ref="AD23" authorId="0">
       <text>
         <r>
           <rPr>
@@ -93,7 +94,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AB36" authorId="0">
+    <comment ref="AB37" authorId="0">
       <text>
         <r>
           <rPr>
@@ -118,7 +119,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AD36" authorId="0">
+    <comment ref="AD37" authorId="0">
       <text>
         <r>
           <rPr>
@@ -142,7 +143,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AC37" authorId="0">
+    <comment ref="AC38" authorId="0">
       <text>
         <r>
           <rPr>
@@ -166,7 +167,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S38" authorId="0">
+    <comment ref="S39" authorId="0">
       <text>
         <r>
           <rPr>
@@ -191,7 +192,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T38" authorId="0">
+    <comment ref="T39" authorId="0">
       <text>
         <r>
           <rPr>
@@ -215,7 +216,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AB50" authorId="0">
+    <comment ref="AB51" authorId="0">
       <text>
         <r>
           <rPr>
@@ -240,7 +241,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AD50" authorId="0">
+    <comment ref="AD51" authorId="0">
       <text>
         <r>
           <rPr>
@@ -264,7 +265,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AC51" authorId="0">
+    <comment ref="AC52" authorId="0">
       <text>
         <r>
           <rPr>
@@ -289,7 +290,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AF51" authorId="0">
+    <comment ref="AF52" authorId="0">
       <text>
         <r>
           <rPr>
@@ -313,7 +314,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S53" authorId="0">
+    <comment ref="S54" authorId="0">
       <text>
         <r>
           <rPr>
@@ -337,7 +338,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T53" authorId="0">
+    <comment ref="T54" authorId="0">
       <text>
         <r>
           <rPr>
@@ -362,7 +363,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U53" authorId="0">
+    <comment ref="U54" authorId="0">
       <text>
         <r>
           <rPr>
@@ -386,7 +387,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L54" authorId="0">
+    <comment ref="L55" authorId="0">
       <text>
         <r>
           <rPr>
@@ -411,7 +412,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AB79" authorId="0">
+    <comment ref="AB80" authorId="0">
       <text>
         <r>
           <rPr>
@@ -436,7 +437,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AD79" authorId="0">
+    <comment ref="AD80" authorId="0">
       <text>
         <r>
           <rPr>
@@ -460,7 +461,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S82" authorId="0">
+    <comment ref="S83" authorId="0">
       <text>
         <r>
           <rPr>
@@ -484,7 +485,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T82" authorId="0">
+    <comment ref="T83" authorId="0">
       <text>
         <r>
           <rPr>
@@ -509,7 +510,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AB95" authorId="0">
+    <comment ref="AB96" authorId="0">
       <text>
         <r>
           <rPr>
@@ -534,7 +535,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AD95" authorId="0">
+    <comment ref="AD96" authorId="0">
       <text>
         <r>
           <rPr>
@@ -558,7 +559,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S98" authorId="0">
+    <comment ref="S99" authorId="0">
       <text>
         <r>
           <rPr>
@@ -582,7 +583,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T98" authorId="0">
+    <comment ref="T99" authorId="0">
       <text>
         <r>
           <rPr>
@@ -607,7 +608,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AB109" authorId="0">
+    <comment ref="AB110" authorId="0">
       <text>
         <r>
           <rPr>
@@ -632,7 +633,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AD109" authorId="0">
+    <comment ref="AD110" authorId="0">
       <text>
         <r>
           <rPr>
@@ -656,7 +657,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S112" authorId="0">
+    <comment ref="S113" authorId="0">
       <text>
         <r>
           <rPr>
@@ -680,7 +681,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T112" authorId="0">
+    <comment ref="T113" authorId="0">
       <text>
         <r>
           <rPr>
@@ -705,7 +706,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AB126" authorId="0">
+    <comment ref="AB127" authorId="0">
       <text>
         <r>
           <rPr>
@@ -730,7 +731,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AD126" authorId="0">
+    <comment ref="AD127" authorId="0">
       <text>
         <r>
           <rPr>
@@ -754,7 +755,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S129" authorId="0">
+    <comment ref="S130" authorId="0">
       <text>
         <r>
           <rPr>
@@ -778,7 +779,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T129" authorId="0">
+    <comment ref="T130" authorId="0">
       <text>
         <r>
           <rPr>
@@ -808,7 +809,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="77">
   <si>
     <t>ID</t>
   </si>
@@ -974,6 +975,96 @@
   <si>
     <t>E</t>
   </si>
+  <si>
+    <t>////////////ข้อกำหนด</t>
+  </si>
+  <si>
+    <t>//node จบ จะเป็น SYSTEM ที่มี ApproveNodes อันเดียวที่ชื่อ FINISH</t>
+  </si>
+  <si>
+    <t>//condition null จะหมายถึง default path หากไม่เข้าเงื่อนไข condition อื่นๆแล้ว</t>
+  </si>
+  <si>
+    <t>//Submit node ผู้เริ่ม flow มี action = Submit</t>
+  </si>
+  <si>
+    <t>//Node name / stage name should be all uppercase</t>
+  </si>
+  <si>
+    <t>//Submit node ต้องชื่อ SUBMIT เท่านั้น ( web app ต้องรู้)</t>
+  </si>
+  <si>
+    <t>//Permission Type มีแค่ GROUP/INDIVIDUAL</t>
+  </si>
+  <si>
+    <t>////////////วิธีการดำเนินการ</t>
+  </si>
+  <si>
+    <t>//1.web app จะตัดสินใจเองว่า user จะใช้ flow ไหน (รู้ ID ของ flow)</t>
+  </si>
+  <si>
+    <t>//2.web app จะต้องรู้เองว่าเวลา query จาก db มาแสดง ใครจะเห็นอันไหน ไม่เห็นอันไหน</t>
+  </si>
+  <si>
+    <t>//3.web app จะตรวจสอบ CONFIG ว่า flow นั้น user จะเริ่ม flow ได้ไหมตาม config</t>
+  </si>
+  <si>
+    <t>//4.web app จะจัดการ permission ของแต่ละข้อมูลด้วยตัวเอง ว่าใครสามารถแก้ข้อมูล form data ได้หรือไม่ได้ ใน stage ไหน (จะถาม CONFIG ก็ได้ แต่ต้องใส่ action มาให้ดี)</t>
+  </si>
+  <si>
+    <t>//5.web app จะกรอก บันทึกข้อมูลลง DB ต้องมีข้อมูลว่า flow นั้นผ่าน stage อะไรมาแล้ว และรอ stage ไหนอยู่ และ master flow id คืออะไร โดยที่ stage submit จะลง stage = "SUBMIT" เท่านั้น</t>
+  </si>
+  <si>
+    <t>//6.web app ควรเก็บข้อมูลในการ approve ร่วมกับ stage ที่ทำการ approve ไว้ ต้องเก็บด้วยนะว่า approve หรือเปล่า</t>
+  </si>
+  <si>
+    <t>//6.เมื่อ user action กับ flow ไม่ว่าจะเป็น submit/approve ก่อนที่ service จะ save ลง DB จะต้องถามเสมอว่า node/stage ต่อไปชื่ออะไร</t>
+  </si>
+  <si>
+    <t>//7.เมื่อคนจะทำรายการ approve ใน flow ใดๆจะต้องเอา awaiting stage + flow id มาถามกับ CONFIG ว่าคนนั้นมีสิทธิ์ใช่หรือไม่</t>
+  </si>
+  <si>
+    <t>//8.เมื่อ webapp รู้ว่ามีสิทธิ์จึงจะทำการ เพิ่มสิทธิ์ใน view ต่อไป  หรือ อนุญาติให้ทำรายการใน service ต่อไป</t>
+  </si>
+  <si>
+    <t>//9. web app ควรเก็บ stage ทั้งหมดไว้เป็น enum ที่ตรงกับ CONFIG เพื่อ renderview / อ้างอิงภายหลัง</t>
+  </si>
+  <si>
+    <t>/////////////สิ่งที่ขาด</t>
+  </si>
+  <si>
+    <t>//Sub-stage เช่นต้องครบ 3 คน จึงจะผ่าน หรือ 3/5 คน จะผ่าน stage นี้ได้</t>
+  </si>
+  <si>
+    <t>////////////อันนี้ต้องเขียน approve node ใหม่ขึ้นมา พร้อมกับ condition ว่า sum แล้วต้องได้เท่าไร (แต่พวก require ก็ต้องผ่านเช่นกัน) และใส่ key ที่เป็น actionRole กำกับ รวมถึงใส่ permissionCards ให้กับ actionRole นั้น และต้องเขียนว่า require ไหม</t>
+  </si>
+  <si>
+    <t>///////////ในทางกลับกัน DB ต้องเก็บข้อมูลการ approve /stage ร่วมกับ actionRole ไว้</t>
+  </si>
+  <si>
+    <t>///////////</t>
+  </si>
+  <si>
+    <t>//Delegate ตัวเองไม่อยู่ในช่วงเวลาที่กำหนด จึงให้คนอื่น on behalf of เราได้บางช่วงเวลา</t>
+  </si>
+  <si>
+    <t>/////////// ปัญหาคือสิทธิ์ของคนที่ทำรายการไปแล้ว กับคนที่มอบ delegate ให้ ใครจะเห็นหรือไม่เห็นอย่างไรในช่วงเวลานั้น</t>
+  </si>
+  <si>
+    <t>///ทางเลือกคือ static class เก็บ list ของ การ delegate ไว้ ว่าใคร delegate ให้ใคร --&gt; ข้อเสียจะไม่ persistance และ CONFIG จะไม่รู้ว่า DB ของ original user มีสิทธิ์อะไรบ้าง</t>
+  </si>
+  <si>
+    <t>///ให้ web app เก็บ table delegate โดยมีข้อมูล userowner / delegated user / dateEff/dateEndEff / active  โดยที่ใน user session ของ web app ต้องแยกเป็น delegate permission โดยมี username/roles ของ original user ไว้ และเมื่อถาม CONFIG จะถามทั้ง ตัวเอง และ delegate ที่มี หาก delegate มีสิทธิ์ ก็ต้องระบุใน DB ว่าทำในฐานะ on be half of</t>
+  </si>
+  <si>
+    <t>//Email Node</t>
+  </si>
+  <si>
+    <t>////Email Notification จะเก็บในระดับ DB อาจจะเป็น UserGroup record</t>
+  </si>
+  <si>
+    <t>////การแจ้งเตือน email นั้น CONFIG จะ provide username/group+level ที่ next node นั้นต้องการไม่ว่าจะเป็น approve/reject (ในกรณี reject กลับไปหา submitter webapp ควรทำเอง ไม่ควรถาม config) (กรณี reject to node อื่นๆ web app ก็ควรทำเอง เพื่อระบุหาคนที่ approve มา หรือไม่งั้น CONFIG ก็ provide กลุ่มให้อีกรอบ)</t>
+  </si>
 </sst>
 </file>
 
@@ -1132,13 +1223,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1190,13 +1281,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1248,13 +1339,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>504825</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1306,13 +1397,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1364,13 +1455,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1422,13 +1513,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1480,13 +1571,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>438150</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1538,13 +1629,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1596,13 +1687,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1643,13 +1734,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1690,13 +1781,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1737,13 +1828,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1784,13 +1875,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>19051</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1831,13 +1922,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>171449</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1878,13 +1969,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>38099</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1925,13 +2016,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>66674</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1972,13 +2063,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2030,13 +2121,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2088,13 +2179,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2135,13 +2226,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2193,13 +2284,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2251,13 +2342,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2298,13 +2389,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>666750</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>85724</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2345,13 +2436,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2403,13 +2494,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2461,13 +2552,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2519,13 +2610,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2566,13 +2657,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>666750</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>85724</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2616,13 +2707,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2674,13 +2765,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>438150</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2721,13 +2812,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>70</xdr:row>
+      <xdr:row>71</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>73</xdr:row>
+      <xdr:row>74</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2779,13 +2870,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>70</xdr:row>
+      <xdr:row>71</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>72</xdr:row>
+      <xdr:row>73</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2837,13 +2928,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>71</xdr:row>
+      <xdr:row>72</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>71</xdr:row>
+      <xdr:row>72</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2884,13 +2975,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>666750</xdr:colOff>
-      <xdr:row>67</xdr:row>
+      <xdr:row>68</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>69</xdr:row>
+      <xdr:row>70</xdr:row>
       <xdr:rowOff>85724</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2934,13 +3025,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>67</xdr:row>
+      <xdr:row>68</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>69</xdr:row>
+      <xdr:row>70</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2992,13 +3083,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>438150</xdr:colOff>
-      <xdr:row>67</xdr:row>
+      <xdr:row>68</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>69</xdr:row>
+      <xdr:row>70</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3039,13 +3130,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>79</xdr:row>
+      <xdr:row>80</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>82</xdr:row>
+      <xdr:row>83</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3097,13 +3188,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>79</xdr:row>
+      <xdr:row>80</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>81</xdr:row>
+      <xdr:row>82</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3155,13 +3246,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>80</xdr:row>
+      <xdr:row>81</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>80</xdr:row>
+      <xdr:row>81</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3202,13 +3293,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>82</xdr:row>
+      <xdr:row>83</xdr:row>
       <xdr:rowOff>9526</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>85</xdr:row>
+      <xdr:row>86</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3260,13 +3351,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>81</xdr:row>
+      <xdr:row>82</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>638175</xdr:colOff>
-      <xdr:row>83</xdr:row>
+      <xdr:row>84</xdr:row>
       <xdr:rowOff>104776</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3307,13 +3398,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>95</xdr:row>
+      <xdr:row>96</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>98</xdr:row>
+      <xdr:row>99</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3365,13 +3456,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>95</xdr:row>
+      <xdr:row>96</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>97</xdr:row>
+      <xdr:row>98</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3423,13 +3514,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>96</xdr:row>
+      <xdr:row>97</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>96</xdr:row>
+      <xdr:row>97</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3470,13 +3561,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>98</xdr:row>
+      <xdr:row>99</xdr:row>
       <xdr:rowOff>9526</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>101</xdr:row>
+      <xdr:row>102</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3528,13 +3619,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>97</xdr:row>
+      <xdr:row>98</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>638175</xdr:colOff>
-      <xdr:row>99</xdr:row>
+      <xdr:row>100</xdr:row>
       <xdr:rowOff>104776</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3575,13 +3666,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>98</xdr:row>
+      <xdr:row>99</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>100</xdr:row>
+      <xdr:row>101</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3633,13 +3724,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>99</xdr:row>
+      <xdr:row>100</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>99</xdr:row>
+      <xdr:row>100</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3680,13 +3771,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>112</xdr:row>
+      <xdr:row>113</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>115</xdr:row>
+      <xdr:row>116</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3738,13 +3829,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>112</xdr:row>
+      <xdr:row>113</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>114</xdr:row>
+      <xdr:row>115</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3796,13 +3887,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>113</xdr:row>
+      <xdr:row>114</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>113</xdr:row>
+      <xdr:row>114</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3843,13 +3934,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>115</xdr:row>
+      <xdr:row>116</xdr:row>
       <xdr:rowOff>9526</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>118</xdr:row>
+      <xdr:row>119</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3901,13 +3992,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>114</xdr:row>
+      <xdr:row>115</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>638175</xdr:colOff>
-      <xdr:row>116</xdr:row>
+      <xdr:row>117</xdr:row>
       <xdr:rowOff>104776</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3948,13 +4039,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>115</xdr:row>
+      <xdr:row>116</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>117</xdr:row>
+      <xdr:row>118</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4006,13 +4097,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>116</xdr:row>
+      <xdr:row>117</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>116</xdr:row>
+      <xdr:row>117</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4053,13 +4144,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>111</xdr:row>
+      <xdr:row>112</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>114</xdr:row>
+      <xdr:row>115</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4111,13 +4202,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>113</xdr:row>
+      <xdr:row>114</xdr:row>
       <xdr:rowOff>114301</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>115</xdr:row>
+      <xdr:row>116</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4158,13 +4249,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>129</xdr:row>
+      <xdr:row>130</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>132</xdr:row>
+      <xdr:row>133</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4216,13 +4307,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>129</xdr:row>
+      <xdr:row>130</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>131</xdr:row>
+      <xdr:row>132</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4274,13 +4365,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>130</xdr:row>
+      <xdr:row>131</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>130</xdr:row>
+      <xdr:row>131</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4321,13 +4412,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>132</xdr:row>
+      <xdr:row>133</xdr:row>
       <xdr:rowOff>9526</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>135</xdr:row>
+      <xdr:row>136</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4379,13 +4470,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>131</xdr:row>
+      <xdr:row>132</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>638175</xdr:colOff>
-      <xdr:row>133</xdr:row>
+      <xdr:row>134</xdr:row>
       <xdr:rowOff>104776</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4426,13 +4517,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>132</xdr:row>
+      <xdr:row>133</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>134</xdr:row>
+      <xdr:row>135</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4484,13 +4575,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>133</xdr:row>
+      <xdr:row>134</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>133</xdr:row>
+      <xdr:row>134</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4531,13 +4622,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>128</xdr:row>
+      <xdr:row>129</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>131</xdr:row>
+      <xdr:row>132</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4589,13 +4680,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>128</xdr:row>
+      <xdr:row>129</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>131</xdr:row>
+      <xdr:row>132</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4647,13 +4738,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>129</xdr:row>
+      <xdr:row>130</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>129</xdr:row>
+      <xdr:row>130</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4694,13 +4785,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>130</xdr:row>
+      <xdr:row>131</xdr:row>
       <xdr:rowOff>114301</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>132</xdr:row>
+      <xdr:row>133</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -5027,11 +5118,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A6:AF137"/>
+  <dimension ref="A7:AF138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M70" workbookViewId="0">
-      <selection activeCell="Z147" sqref="Z147"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -5048,89 +5137,63 @@
     <col min="32" max="32" width="12.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="N6" s="1" t="s">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="N7" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="O6" s="1" t="s">
+      <c r="O7" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="P6" s="1" t="s">
+      <c r="P7" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="Q6" s="1" t="s">
+      <c r="Q7" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="R6" s="1" t="s">
+      <c r="R7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="S6" s="1" t="s">
+      <c r="S7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="T6" s="1" t="s">
+      <c r="T7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="U6" s="1" t="s">
+      <c r="U7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="V6" s="1" t="s">
+      <c r="V7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="W6" s="1" t="s">
+      <c r="W7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="X6" s="1" t="s">
+      <c r="X7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="Y6" s="2" t="s">
+      <c r="Y7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="AA6" s="1" t="s">
+      <c r="AA7" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="AB6" s="1" t="s">
+      <c r="AB7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="AC6" s="1" t="s">
+      <c r="AC7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="AD6" s="1" t="s">
+      <c r="AD7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="AE6" s="1" t="s">
+      <c r="AE7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="AF6" s="1" t="s">
+      <c r="AF7" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="1"/>
-      <c r="R7" s="1"/>
-      <c r="S7" s="1"/>
-      <c r="T7" s="1"/>
-      <c r="U7" s="1"/>
-      <c r="V7" s="1"/>
-      <c r="W7" s="1"/>
-      <c r="X7" s="1"/>
-      <c r="Y7" s="1"/>
-      <c r="AA7" s="1"/>
-      <c r="AB7" s="1"/>
-      <c r="AC7" s="1"/>
-      <c r="AD7" s="1"/>
-      <c r="AE7" s="1"/>
-      <c r="AF7" s="1"/>
-    </row>
     <row r="8" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="F8" t="s">
-        <v>16</v>
-      </c>
-      <c r="H8" t="s">
-        <v>17</v>
-      </c>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
@@ -5151,6 +5214,12 @@
       <c r="AF8" s="1"/>
     </row>
     <row r="9" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="F9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H9" t="s">
+        <v>17</v>
+      </c>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
@@ -5231,12 +5300,6 @@
       <c r="AF12" s="1"/>
     </row>
     <row r="13" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" t="s">
-        <v>19</v>
-      </c>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
@@ -5257,8 +5320,11 @@
       <c r="AF13" s="1"/>
     </row>
     <row r="14" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="J14" t="s">
-        <v>20</v>
+      <c r="A14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" t="s">
+        <v>19</v>
       </c>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
@@ -5280,6 +5346,9 @@
       <c r="AF14" s="1"/>
     </row>
     <row r="15" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="J15" t="s">
+        <v>20</v>
+      </c>
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
@@ -5320,12 +5389,6 @@
       <c r="AF16" s="1"/>
     </row>
     <row r="17" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="F17" t="s">
-        <v>21</v>
-      </c>
-      <c r="H17" t="s">
-        <v>22</v>
-      </c>
       <c r="N17" s="1"/>
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
@@ -5345,138 +5408,144 @@
       <c r="AE17" s="1"/>
       <c r="AF17" s="1"/>
     </row>
-    <row r="22" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="N22" s="1" t="s">
+    <row r="18" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="F18" t="s">
+        <v>21</v>
+      </c>
+      <c r="H18" t="s">
+        <v>22</v>
+      </c>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="1"/>
+      <c r="S18" s="1"/>
+      <c r="T18" s="1"/>
+      <c r="U18" s="1"/>
+      <c r="V18" s="1"/>
+      <c r="W18" s="1"/>
+      <c r="X18" s="1"/>
+      <c r="Y18" s="1"/>
+      <c r="AA18" s="1"/>
+      <c r="AB18" s="1"/>
+      <c r="AC18" s="1"/>
+      <c r="AD18" s="1"/>
+      <c r="AE18" s="1"/>
+      <c r="AF18" s="1"/>
+    </row>
+    <row r="23" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="N23" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="O22" s="1" t="s">
+      <c r="O23" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="P22" s="1" t="s">
+      <c r="P23" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="Q22" s="1" t="s">
+      <c r="Q23" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="R22" s="1" t="s">
+      <c r="R23" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="S22" s="1" t="s">
+      <c r="S23" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="T22" s="1" t="s">
+      <c r="T23" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="U22" s="1" t="s">
+      <c r="U23" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="V22" s="1" t="s">
+      <c r="V23" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="W22" s="1" t="s">
+      <c r="W23" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="X22" s="1" t="s">
+      <c r="X23" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="Y22" s="2" t="s">
+      <c r="Y23" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="AA22" s="1" t="s">
+      <c r="AA23" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="AB22" s="1" t="s">
+      <c r="AB23" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="AC22" s="1" t="s">
+      <c r="AC23" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="AD22" s="1" t="s">
+      <c r="AD23" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="AE22" s="1" t="s">
+      <c r="AE23" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="AF22" s="1" t="s">
+      <c r="AF23" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A23" s="3" t="s">
+    <row r="24" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A24" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="N23" s="1">
+      <c r="N24" s="1">
         <v>1</v>
       </c>
-      <c r="O23" s="1">
+      <c r="O24" s="1">
         <v>1</v>
       </c>
-      <c r="P23" s="1" t="s">
+      <c r="P24" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="Q23" s="1" t="s">
+      <c r="Q24" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="R23" s="1" t="s">
+      <c r="R24" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="S23" s="1" t="s">
+      <c r="S24" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="T23" s="1" t="s">
+      <c r="T24" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="U23" s="1" t="s">
+      <c r="U24" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="V23" s="1"/>
-      <c r="W23" s="4">
+      <c r="V24" s="1"/>
+      <c r="W24" s="4">
         <v>241311</v>
       </c>
-      <c r="X23" s="1" t="s">
+      <c r="X24" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="Y23" s="1">
+      <c r="Y24" s="1">
         <v>1</v>
       </c>
-      <c r="AA23" s="1">
+      <c r="AA24" s="1">
         <v>1</v>
       </c>
-      <c r="AB23" s="1" t="s">
+      <c r="AB24" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AC23" s="1" t="s">
+      <c r="AC24" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AD23" s="1">
+      <c r="AD24" s="1">
         <v>2</v>
       </c>
-      <c r="AE23" s="1" t="s">
+      <c r="AE24" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AF23" s="1">
+      <c r="AF24" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="N24" s="1"/>
-      <c r="O24" s="1"/>
-      <c r="P24" s="1"/>
-      <c r="Q24" s="1"/>
-      <c r="R24" s="1"/>
-      <c r="S24" s="1"/>
-      <c r="T24" s="1"/>
-      <c r="U24" s="1"/>
-      <c r="V24" s="1"/>
-      <c r="W24" s="1"/>
-      <c r="X24" s="1"/>
-      <c r="Y24" s="1"/>
-      <c r="AA24" s="1"/>
-      <c r="AB24" s="1"/>
-      <c r="AC24" s="1"/>
-      <c r="AD24" s="1"/>
-      <c r="AE24" s="1"/>
-      <c r="AF24" s="1"/>
     </row>
     <row r="25" spans="1:32" x14ac:dyDescent="0.2">
       <c r="N25" s="1"/>
@@ -5559,12 +5628,6 @@
       <c r="AF28" s="1"/>
     </row>
     <row r="29" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="B29" t="s">
-        <v>18</v>
-      </c>
-      <c r="D29" t="s">
-        <v>19</v>
-      </c>
       <c r="N29" s="1"/>
       <c r="O29" s="1"/>
       <c r="P29" s="1"/>
@@ -5585,6 +5648,12 @@
       <c r="AF29" s="1"/>
     </row>
     <row r="30" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
+        <v>18</v>
+      </c>
+      <c r="D30" t="s">
+        <v>19</v>
+      </c>
       <c r="N30" s="1"/>
       <c r="O30" s="1"/>
       <c r="P30" s="1"/>
@@ -5664,174 +5733,174 @@
       <c r="AE33" s="1"/>
       <c r="AF33" s="1"/>
     </row>
-    <row r="36" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="N36" s="1" t="s">
+    <row r="34" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="N34" s="1"/>
+      <c r="O34" s="1"/>
+      <c r="P34" s="1"/>
+      <c r="Q34" s="1"/>
+      <c r="R34" s="1"/>
+      <c r="S34" s="1"/>
+      <c r="T34" s="1"/>
+      <c r="U34" s="1"/>
+      <c r="V34" s="1"/>
+      <c r="W34" s="1"/>
+      <c r="X34" s="1"/>
+      <c r="Y34" s="1"/>
+      <c r="AA34" s="1"/>
+      <c r="AB34" s="1"/>
+      <c r="AC34" s="1"/>
+      <c r="AD34" s="1"/>
+      <c r="AE34" s="1"/>
+      <c r="AF34" s="1"/>
+    </row>
+    <row r="37" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="N37" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="O36" s="1" t="s">
+      <c r="O37" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="P36" s="1" t="s">
+      <c r="P37" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="Q36" s="1" t="s">
+      <c r="Q37" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="R36" s="1" t="s">
+      <c r="R37" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="S36" s="1" t="s">
+      <c r="S37" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="T36" s="1" t="s">
+      <c r="T37" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="U36" s="1" t="s">
+      <c r="U37" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="V36" s="1" t="s">
+      <c r="V37" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="W36" s="1" t="s">
+      <c r="W37" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="X36" s="1" t="s">
+      <c r="X37" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="Y36" s="2" t="s">
+      <c r="Y37" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="AA36" s="1" t="s">
+      <c r="AA37" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="AB36" s="1" t="s">
+      <c r="AB37" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="AC36" s="1" t="s">
+      <c r="AC37" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="AD36" s="1" t="s">
+      <c r="AD37" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="AE36" s="1" t="s">
+      <c r="AE37" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="AF36" s="1" t="s">
+      <c r="AF37" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="37" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A37" s="3" t="s">
+    <row r="38" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A38" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="N37" s="1">
+      <c r="N38" s="1">
         <v>1</v>
       </c>
-      <c r="O37" s="1">
+      <c r="O38" s="1">
         <v>1</v>
       </c>
-      <c r="P37" s="1" t="s">
+      <c r="P38" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="Q37" s="1" t="s">
+      <c r="Q38" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="R37" s="1" t="s">
+      <c r="R38" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="S37" s="1" t="s">
+      <c r="S38" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="T37" s="1" t="s">
+      <c r="T38" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="U37" s="1" t="s">
+      <c r="U38" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="V37" s="1"/>
-      <c r="W37" s="4">
+      <c r="V38" s="1"/>
+      <c r="W38" s="4">
         <v>241311</v>
       </c>
-      <c r="X37" s="1" t="s">
+      <c r="X38" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="Y37" s="1">
+      <c r="Y38" s="1">
         <v>1</v>
       </c>
-      <c r="AA37" s="1">
+      <c r="AA38" s="1">
         <v>1</v>
       </c>
-      <c r="AB37" s="1" t="s">
+      <c r="AB38" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AC37" s="5">
+      <c r="AC38" s="5">
         <v>2</v>
       </c>
-      <c r="AD37" s="5">
+      <c r="AD38" s="5">
         <v>3</v>
       </c>
-      <c r="AE37" s="1" t="s">
+      <c r="AE38" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AF37" s="1">
+      <c r="AF38" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="N38" s="5">
+    <row r="39" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="N39" s="5">
         <v>2</v>
       </c>
-      <c r="O38" s="5">
+      <c r="O39" s="5">
         <v>1</v>
       </c>
-      <c r="P38" s="5" t="s">
+      <c r="P39" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="Q38" s="5" t="s">
+      <c r="Q39" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="R38" s="5" t="s">
+      <c r="R39" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="S38" s="5">
+      <c r="S39" s="5">
         <v>2</v>
       </c>
-      <c r="T38" s="5" t="s">
+      <c r="T39" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="U38" s="5" t="s">
+      <c r="U39" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="V38" s="5"/>
-      <c r="W38" s="6">
+      <c r="V39" s="5"/>
+      <c r="W39" s="6">
         <v>241312</v>
       </c>
-      <c r="X38" s="5" t="s">
+      <c r="X39" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="Y38" s="5">
+      <c r="Y39" s="5">
         <v>1</v>
       </c>
-      <c r="AA38" s="1"/>
-      <c r="AB38" s="1"/>
-      <c r="AC38" s="1"/>
-      <c r="AD38" s="1"/>
-      <c r="AE38" s="1"/>
-      <c r="AF38" s="1"/>
-    </row>
-    <row r="39" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="N39" s="1"/>
-      <c r="O39" s="1"/>
-      <c r="P39" s="1"/>
-      <c r="Q39" s="1"/>
-      <c r="R39" s="1"/>
-      <c r="S39" s="1"/>
-      <c r="T39" s="1"/>
-      <c r="U39" s="1"/>
-      <c r="V39" s="1"/>
-      <c r="W39" s="1"/>
-      <c r="X39" s="1"/>
-      <c r="Y39" s="1"/>
       <c r="AA39" s="1"/>
       <c r="AB39" s="1"/>
       <c r="AC39" s="1"/>
@@ -5860,9 +5929,6 @@
       <c r="AF40" s="1"/>
     </row>
     <row r="41" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="G41" t="s">
-        <v>16</v>
-      </c>
       <c r="N41" s="1"/>
       <c r="O41" s="1"/>
       <c r="P41" s="1"/>
@@ -5883,6 +5949,9 @@
       <c r="AF41" s="1"/>
     </row>
     <row r="42" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="G42" t="s">
+        <v>16</v>
+      </c>
       <c r="N42" s="1"/>
       <c r="O42" s="1"/>
       <c r="P42" s="1"/>
@@ -5923,12 +5992,6 @@
       <c r="AF43" s="1"/>
     </row>
     <row r="44" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="C44" t="s">
-        <v>18</v>
-      </c>
-      <c r="E44" t="s">
-        <v>19</v>
-      </c>
       <c r="N44" s="1"/>
       <c r="O44" s="1"/>
       <c r="P44" s="1"/>
@@ -5949,6 +6012,12 @@
       <c r="AF44" s="1"/>
     </row>
     <row r="45" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="C45" t="s">
+        <v>18</v>
+      </c>
+      <c r="E45" t="s">
+        <v>19</v>
+      </c>
       <c r="N45" s="1"/>
       <c r="O45" s="1"/>
       <c r="P45" s="1"/>
@@ -6008,194 +6077,172 @@
       <c r="AE47" s="1"/>
       <c r="AF47" s="1"/>
     </row>
-    <row r="50" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="N50" s="1" t="s">
+    <row r="48" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="N48" s="1"/>
+      <c r="O48" s="1"/>
+      <c r="P48" s="1"/>
+      <c r="Q48" s="1"/>
+      <c r="R48" s="1"/>
+      <c r="S48" s="1"/>
+      <c r="T48" s="1"/>
+      <c r="U48" s="1"/>
+      <c r="V48" s="1"/>
+      <c r="W48" s="1"/>
+      <c r="X48" s="1"/>
+      <c r="Y48" s="1"/>
+      <c r="AA48" s="1"/>
+      <c r="AB48" s="1"/>
+      <c r="AC48" s="1"/>
+      <c r="AD48" s="1"/>
+      <c r="AE48" s="1"/>
+      <c r="AF48" s="1"/>
+    </row>
+    <row r="51" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="N51" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="O50" s="1" t="s">
+      <c r="O51" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="P50" s="1" t="s">
+      <c r="P51" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="Q50" s="1" t="s">
+      <c r="Q51" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="R50" s="1" t="s">
+      <c r="R51" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="S50" s="1" t="s">
+      <c r="S51" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="T50" s="1" t="s">
+      <c r="T51" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="U50" s="1" t="s">
+      <c r="U51" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="V50" s="1" t="s">
+      <c r="V51" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="W50" s="1" t="s">
+      <c r="W51" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="X50" s="1" t="s">
+      <c r="X51" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="Y50" s="2" t="s">
+      <c r="Y51" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="AA50" s="1" t="s">
+      <c r="AA51" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="AB50" s="1" t="s">
+      <c r="AB51" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="AC50" s="1" t="s">
+      <c r="AC51" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="AD50" s="1" t="s">
+      <c r="AD51" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="AE50" s="1" t="s">
+      <c r="AE51" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="AF50" s="1" t="s">
+      <c r="AF51" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="51" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A51" s="3" t="s">
+    <row r="52" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A52" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="N51" s="1">
+      <c r="N52" s="1">
         <v>1</v>
       </c>
-      <c r="O51" s="1">
+      <c r="O52" s="1">
         <v>1</v>
       </c>
-      <c r="P51" s="1" t="s">
+      <c r="P52" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="Q51" s="1" t="s">
+      <c r="Q52" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="R51" s="1" t="s">
+      <c r="R52" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="S51" s="1" t="s">
+      <c r="S52" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="T51" s="1" t="s">
+      <c r="T52" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="U51" s="1" t="s">
+      <c r="U52" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="V51" s="1"/>
-      <c r="W51" s="4">
+      <c r="V52" s="1"/>
+      <c r="W52" s="4">
         <v>241311</v>
       </c>
-      <c r="X51" s="1" t="s">
+      <c r="X52" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="Y51" s="1">
+      <c r="Y52" s="1">
         <v>1</v>
       </c>
-      <c r="AA51" s="1">
+      <c r="AA52" s="1">
         <v>1</v>
       </c>
-      <c r="AB51" s="1" t="s">
+      <c r="AB52" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AC51" s="5" t="s">
+      <c r="AC52" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="AD51" s="5">
+      <c r="AD52" s="5">
         <v>2</v>
       </c>
-      <c r="AE51" s="1" t="s">
+      <c r="AE52" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AF51" s="7">
+      <c r="AF52" s="7">
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="N52" s="8">
+    <row r="53" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="N53" s="8">
         <v>2</v>
       </c>
-      <c r="O52" s="8">
+      <c r="O53" s="8">
         <v>1</v>
       </c>
-      <c r="P52" s="8" t="s">
+      <c r="P53" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="Q52" s="8" t="s">
+      <c r="Q53" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="R52" s="8" t="s">
+      <c r="R53" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="S52" s="8">
+      <c r="S53" s="8">
         <v>2</v>
       </c>
-      <c r="T52" s="8" t="s">
+      <c r="T53" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="U52" s="8" t="s">
+      <c r="U53" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="V52" s="8"/>
-      <c r="W52" s="9">
+      <c r="V53" s="8"/>
+      <c r="W53" s="9">
         <v>241312</v>
       </c>
-      <c r="X52" s="8" t="s">
+      <c r="X53" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="Y52" s="8">
-        <v>1</v>
-      </c>
-      <c r="AA52" s="1"/>
-      <c r="AB52" s="1"/>
-      <c r="AC52" s="1"/>
-      <c r="AD52" s="1"/>
-      <c r="AE52" s="1"/>
-      <c r="AF52" s="1"/>
-    </row>
-    <row r="53" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="N53" s="5">
-        <v>3</v>
-      </c>
-      <c r="O53" s="5">
-        <v>1</v>
-      </c>
-      <c r="P53" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q53" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="R53" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="S53" s="5">
-        <v>3</v>
-      </c>
-      <c r="T53" s="5">
-        <v>2</v>
-      </c>
-      <c r="U53" s="5">
-        <v>2</v>
-      </c>
-      <c r="V53" s="5"/>
-      <c r="W53" s="6">
-        <v>241313</v>
-      </c>
-      <c r="X53" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="Y53" s="7">
+      <c r="Y53" s="8">
         <v>1</v>
       </c>
       <c r="AA53" s="1"/>
@@ -6206,45 +6253,39 @@
       <c r="AF53" s="1"/>
     </row>
     <row r="54" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="L54" t="s">
-        <v>35</v>
-      </c>
-      <c r="M54" t="s">
-        <v>36</v>
-      </c>
-      <c r="N54" s="10">
-        <v>4</v>
-      </c>
-      <c r="O54" s="10">
+      <c r="N54" s="5">
+        <v>3</v>
+      </c>
+      <c r="O54" s="5">
         <v>1</v>
       </c>
-      <c r="P54" s="10" t="s">
+      <c r="P54" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q54" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="R54" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="Q54" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="R54" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="S54" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="T54" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="U54" s="10" t="s">
+      <c r="S54" s="5">
+        <v>3</v>
+      </c>
+      <c r="T54" s="5">
+        <v>2</v>
+      </c>
+      <c r="U54" s="5">
+        <v>2</v>
+      </c>
+      <c r="V54" s="5"/>
+      <c r="W54" s="6">
+        <v>241313</v>
+      </c>
+      <c r="X54" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="V54" s="10"/>
-      <c r="W54" s="11">
-        <v>241311</v>
-      </c>
-      <c r="X54" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="Y54" s="10">
-        <v>2</v>
+      <c r="Y54" s="7">
+        <v>1</v>
       </c>
       <c r="AA54" s="1"/>
       <c r="AB54" s="1"/>
@@ -6254,21 +6295,46 @@
       <c r="AF54" s="1"/>
     </row>
     <row r="55" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="G55" t="s">
-        <v>16</v>
-      </c>
-      <c r="N55" s="1"/>
-      <c r="O55" s="1"/>
-      <c r="P55" s="1"/>
-      <c r="Q55" s="1"/>
-      <c r="R55" s="1"/>
-      <c r="S55" s="1"/>
-      <c r="T55" s="1"/>
-      <c r="U55" s="1"/>
-      <c r="V55" s="1"/>
-      <c r="W55" s="1"/>
-      <c r="X55" s="1"/>
-      <c r="Y55" s="1"/>
+      <c r="L55" t="s">
+        <v>35</v>
+      </c>
+      <c r="M55" t="s">
+        <v>36</v>
+      </c>
+      <c r="N55" s="10">
+        <v>4</v>
+      </c>
+      <c r="O55" s="10">
+        <v>1</v>
+      </c>
+      <c r="P55" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q55" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="R55" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="S55" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="T55" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="U55" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="V55" s="10"/>
+      <c r="W55" s="11">
+        <v>241311</v>
+      </c>
+      <c r="X55" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y55" s="10">
+        <v>2</v>
+      </c>
       <c r="AA55" s="1"/>
       <c r="AB55" s="1"/>
       <c r="AC55" s="1"/>
@@ -6277,6 +6343,9 @@
       <c r="AF55" s="1"/>
     </row>
     <row r="56" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="G56" t="s">
+        <v>16</v>
+      </c>
       <c r="N56" s="1"/>
       <c r="O56" s="1"/>
       <c r="P56" s="1"/>
@@ -6317,12 +6386,6 @@
       <c r="AF57" s="1"/>
     </row>
     <row r="58" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="C58" t="s">
-        <v>18</v>
-      </c>
-      <c r="E58" t="s">
-        <v>19</v>
-      </c>
       <c r="N58" s="1"/>
       <c r="O58" s="1"/>
       <c r="P58" s="1"/>
@@ -6343,6 +6406,12 @@
       <c r="AF58" s="1"/>
     </row>
     <row r="59" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="C59" t="s">
+        <v>18</v>
+      </c>
+      <c r="E59" t="s">
+        <v>19</v>
+      </c>
       <c r="N59" s="1"/>
       <c r="O59" s="1"/>
       <c r="P59" s="1"/>
@@ -6402,217 +6471,195 @@
       <c r="AE61" s="1"/>
       <c r="AF61" s="1"/>
     </row>
-    <row r="67" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A67" s="3" t="s">
+    <row r="62" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="N62" s="1"/>
+      <c r="O62" s="1"/>
+      <c r="P62" s="1"/>
+      <c r="Q62" s="1"/>
+      <c r="R62" s="1"/>
+      <c r="S62" s="1"/>
+      <c r="T62" s="1"/>
+      <c r="U62" s="1"/>
+      <c r="V62" s="1"/>
+      <c r="W62" s="1"/>
+      <c r="X62" s="1"/>
+      <c r="Y62" s="1"/>
+      <c r="AA62" s="1"/>
+      <c r="AB62" s="1"/>
+      <c r="AC62" s="1"/>
+      <c r="AD62" s="1"/>
+      <c r="AE62" s="1"/>
+      <c r="AF62" s="1"/>
+    </row>
+    <row r="68" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A68" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="71" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="G71" t="s">
+    <row r="72" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="G72" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="72" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A72" s="3" t="s">
+    <row r="73" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A73" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="74" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="C74" t="s">
+    <row r="75" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="C75" t="s">
         <v>18</v>
       </c>
-      <c r="E74" t="s">
+      <c r="E75" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="79" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="N79" s="1" t="s">
+    <row r="80" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="N80" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="O79" s="1" t="s">
+      <c r="O80" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="P79" s="1" t="s">
+      <c r="P80" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="Q79" s="1" t="s">
+      <c r="Q80" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="R79" s="1" t="s">
+      <c r="R80" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="S79" s="1" t="s">
+      <c r="S80" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="T79" s="1" t="s">
+      <c r="T80" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="U79" s="1" t="s">
+      <c r="U80" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="V79" s="1" t="s">
+      <c r="V80" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="W79" s="1" t="s">
+      <c r="W80" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="X79" s="1" t="s">
+      <c r="X80" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="Y79" s="2" t="s">
+      <c r="Y80" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="AA79" s="1" t="s">
+      <c r="AA80" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="AB79" s="1" t="s">
+      <c r="AB80" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="AC79" s="1" t="s">
+      <c r="AC80" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="AD79" s="1" t="s">
+      <c r="AD80" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="AE79" s="1" t="s">
+      <c r="AE80" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="AF79" s="1" t="s">
+      <c r="AF80" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="80" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A80" s="3" t="s">
+    <row r="81" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A81" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="N80" s="1">
+      <c r="N81" s="1">
         <v>1</v>
       </c>
-      <c r="O80" s="1">
+      <c r="O81" s="1">
         <v>1</v>
       </c>
-      <c r="P80" s="1" t="s">
+      <c r="P81" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="Q80" s="1" t="s">
+      <c r="Q81" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="R80" s="1" t="s">
+      <c r="R81" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="S80" s="1" t="s">
+      <c r="S81" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="T80" s="1" t="s">
+      <c r="T81" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="U80" s="1" t="s">
+      <c r="U81" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="V80" s="1"/>
-      <c r="W80" s="4">
+      <c r="V81" s="1"/>
+      <c r="W81" s="4">
         <v>241311</v>
       </c>
-      <c r="X80" s="1" t="s">
+      <c r="X81" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="Y80" s="1">
+      <c r="Y81" s="1">
         <v>1</v>
       </c>
-      <c r="AA80" s="1">
+      <c r="AA81" s="1">
         <v>1</v>
       </c>
-      <c r="AB80" s="1" t="s">
+      <c r="AB81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AC80" s="5">
+      <c r="AC81" s="5">
         <v>2</v>
       </c>
-      <c r="AD80" s="5">
+      <c r="AD81" s="5">
         <v>6</v>
       </c>
-      <c r="AE80" s="1" t="s">
+      <c r="AE81" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AF80" s="12">
+      <c r="AF81" s="12">
         <v>2</v>
       </c>
     </row>
-    <row r="81" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="N81" s="8">
+    <row r="82" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="N82" s="8">
         <v>2</v>
       </c>
-      <c r="O81" s="8">
+      <c r="O82" s="8">
         <v>1</v>
       </c>
-      <c r="P81" s="8" t="s">
+      <c r="P82" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="Q81" s="8" t="s">
+      <c r="Q82" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="R81" s="8" t="s">
+      <c r="R82" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="S81" s="8">
+      <c r="S82" s="8">
         <v>2</v>
       </c>
-      <c r="T81" s="8" t="s">
+      <c r="T82" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="U81" s="8" t="s">
+      <c r="U82" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="V81" s="8"/>
-      <c r="W81" s="9">
+      <c r="V82" s="8"/>
+      <c r="W82" s="9">
         <v>241312</v>
       </c>
-      <c r="X81" s="8" t="s">
+      <c r="X82" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="Y81" s="8">
-        <v>1</v>
-      </c>
-      <c r="AA81" s="1"/>
-      <c r="AB81" s="1"/>
-      <c r="AC81" s="1"/>
-      <c r="AD81" s="1"/>
-      <c r="AE81" s="1"/>
-      <c r="AF81" s="1"/>
-    </row>
-    <row r="82" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="N82" s="2">
-        <v>3</v>
-      </c>
-      <c r="O82" s="2">
-        <v>1</v>
-      </c>
-      <c r="P82" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q82" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="R82" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="S82" s="2">
-        <v>3</v>
-      </c>
-      <c r="T82" s="2">
-        <v>2</v>
-      </c>
-      <c r="U82" s="2">
-        <v>2</v>
-      </c>
-      <c r="V82" s="2"/>
-      <c r="W82" s="13">
-        <v>241313</v>
-      </c>
-      <c r="X82" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="Y82" s="12">
+      <c r="Y82" s="8">
         <v>1</v>
       </c>
       <c r="AA82" s="1"/>
@@ -6623,45 +6670,39 @@
       <c r="AF82" s="1"/>
     </row>
     <row r="83" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="C83" t="s">
-        <v>18</v>
-      </c>
-      <c r="E83" t="s">
-        <v>19</v>
-      </c>
       <c r="N83" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O83" s="2">
         <v>1</v>
       </c>
       <c r="P83" s="2" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="Q83" s="2" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="R83" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="S83" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="T83" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="U83" s="2" t="s">
-        <v>27</v>
+      <c r="S83" s="2">
+        <v>3</v>
+      </c>
+      <c r="T83" s="2">
+        <v>2</v>
+      </c>
+      <c r="U83" s="2">
+        <v>2</v>
       </c>
       <c r="V83" s="2"/>
       <c r="W83" s="13">
-        <v>241311</v>
+        <v>241313</v>
       </c>
       <c r="X83" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="Y83" s="2">
-        <v>2</v>
+      <c r="Y83" s="12">
+        <v>1</v>
       </c>
       <c r="AA83" s="1"/>
       <c r="AB83" s="1"/>
@@ -6671,38 +6712,44 @@
       <c r="AF83" s="1"/>
     </row>
     <row r="84" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="N84" s="5">
-        <v>5</v>
-      </c>
-      <c r="O84" s="5">
+      <c r="C84" t="s">
+        <v>18</v>
+      </c>
+      <c r="E84" t="s">
+        <v>19</v>
+      </c>
+      <c r="N84" s="2">
+        <v>4</v>
+      </c>
+      <c r="O84" s="2">
         <v>1</v>
       </c>
-      <c r="P84" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q84" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="R84" s="5" t="s">
+      <c r="P84" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="S84" s="5">
-        <v>2</v>
-      </c>
-      <c r="T84" s="14" t="s">
+      <c r="Q84" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="U84" s="14" t="s">
+      <c r="R84" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="S84" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="T84" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="U84" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="V84" s="5"/>
-      <c r="W84" s="6">
-        <v>241314</v>
-      </c>
-      <c r="X84" s="5" t="s">
+      <c r="V84" s="2"/>
+      <c r="W84" s="13">
+        <v>241311</v>
+      </c>
+      <c r="X84" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="Y84" s="5">
+      <c r="Y84" s="2">
         <v>2</v>
       </c>
       <c r="AA84" s="1"/>
@@ -6713,18 +6760,40 @@
       <c r="AF84" s="1"/>
     </row>
     <row r="85" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="N85" s="1"/>
-      <c r="O85" s="1"/>
-      <c r="P85" s="1"/>
-      <c r="Q85" s="1"/>
-      <c r="R85" s="1"/>
-      <c r="S85" s="1"/>
-      <c r="T85" s="1"/>
-      <c r="U85" s="1"/>
-      <c r="V85" s="1"/>
-      <c r="W85" s="1"/>
-      <c r="X85" s="1"/>
-      <c r="Y85" s="1"/>
+      <c r="N85" s="5">
+        <v>5</v>
+      </c>
+      <c r="O85" s="5">
+        <v>1</v>
+      </c>
+      <c r="P85" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q85" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="R85" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="S85" s="5">
+        <v>2</v>
+      </c>
+      <c r="T85" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="U85" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="V85" s="5"/>
+      <c r="W85" s="6">
+        <v>241314</v>
+      </c>
+      <c r="X85" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y85" s="5">
+        <v>2</v>
+      </c>
       <c r="AA85" s="1"/>
       <c r="AB85" s="1"/>
       <c r="AC85" s="1"/>
@@ -6733,9 +6802,6 @@
       <c r="AF85" s="1"/>
     </row>
     <row r="86" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="G86" t="s">
-        <v>21</v>
-      </c>
       <c r="N86" s="1"/>
       <c r="O86" s="1"/>
       <c r="P86" s="1"/>
@@ -6756,6 +6822,9 @@
       <c r="AF86" s="1"/>
     </row>
     <row r="87" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="G87" t="s">
+        <v>21</v>
+      </c>
       <c r="N87" s="1"/>
       <c r="O87" s="1"/>
       <c r="P87" s="1"/>
@@ -6835,199 +6904,177 @@
       <c r="AE90" s="1"/>
       <c r="AF90" s="1"/>
     </row>
-    <row r="94" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A94" s="3" t="s">
+    <row r="91" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="N91" s="1"/>
+      <c r="O91" s="1"/>
+      <c r="P91" s="1"/>
+      <c r="Q91" s="1"/>
+      <c r="R91" s="1"/>
+      <c r="S91" s="1"/>
+      <c r="T91" s="1"/>
+      <c r="U91" s="1"/>
+      <c r="V91" s="1"/>
+      <c r="W91" s="1"/>
+      <c r="X91" s="1"/>
+      <c r="Y91" s="1"/>
+      <c r="AA91" s="1"/>
+      <c r="AB91" s="1"/>
+      <c r="AC91" s="1"/>
+      <c r="AD91" s="1"/>
+      <c r="AE91" s="1"/>
+      <c r="AF91" s="1"/>
+    </row>
+    <row r="95" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A95" s="3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="95" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="N95" s="1" t="s">
+    <row r="96" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="N96" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="O95" s="1" t="s">
+      <c r="O96" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="P95" s="1" t="s">
+      <c r="P96" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="Q95" s="1" t="s">
+      <c r="Q96" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="R95" s="1" t="s">
+      <c r="R96" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="S95" s="1" t="s">
+      <c r="S96" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="T95" s="1" t="s">
+      <c r="T96" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="U95" s="1" t="s">
+      <c r="U96" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="V95" s="1" t="s">
+      <c r="V96" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="W95" s="1" t="s">
+      <c r="W96" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="X95" s="1" t="s">
+      <c r="X96" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="Y95" s="2" t="s">
+      <c r="Y96" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="AA95" s="1" t="s">
+      <c r="AA96" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="AB95" s="1" t="s">
+      <c r="AB96" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="AC95" s="1" t="s">
+      <c r="AC96" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="AD95" s="1" t="s">
+      <c r="AD96" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="AE95" s="1" t="s">
+      <c r="AE96" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="AF95" s="1" t="s">
+      <c r="AF96" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="96" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A96" s="3" t="s">
+    <row r="97" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A97" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="N96" s="1">
+      <c r="N97" s="1">
         <v>1</v>
       </c>
-      <c r="O96" s="1">
+      <c r="O97" s="1">
         <v>1</v>
       </c>
-      <c r="P96" s="1" t="s">
+      <c r="P97" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="Q96" s="1" t="s">
+      <c r="Q97" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="R96" s="1" t="s">
+      <c r="R97" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="S96" s="1" t="s">
+      <c r="S97" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="T96" s="1" t="s">
+      <c r="T97" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="U96" s="1" t="s">
+      <c r="U97" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="V96" s="1"/>
-      <c r="W96" s="4">
+      <c r="V97" s="1"/>
+      <c r="W97" s="4">
         <v>241311</v>
       </c>
-      <c r="X96" s="1" t="s">
+      <c r="X97" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="Y96" s="1">
+      <c r="Y97" s="1">
         <v>1</v>
       </c>
-      <c r="AA96" s="1">
+      <c r="AA97" s="1">
         <v>1</v>
       </c>
-      <c r="AB96" s="1" t="s">
+      <c r="AB97" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AC96" s="5">
+      <c r="AC97" s="5">
         <v>6</v>
       </c>
-      <c r="AD96" s="5">
+      <c r="AD97" s="5">
         <v>7</v>
       </c>
-      <c r="AE96" s="8" t="s">
+      <c r="AE97" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="AF96" s="15">
+      <c r="AF97" s="15">
         <v>2</v>
       </c>
     </row>
-    <row r="97" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="N97" s="8">
+    <row r="98" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="N98" s="8">
         <v>2</v>
       </c>
-      <c r="O97" s="8">
+      <c r="O98" s="8">
         <v>1</v>
       </c>
-      <c r="P97" s="8" t="s">
+      <c r="P98" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="Q97" s="8" t="s">
+      <c r="Q98" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="R97" s="8" t="s">
+      <c r="R98" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="S97" s="8">
+      <c r="S98" s="8">
         <v>2</v>
       </c>
-      <c r="T97" s="8" t="s">
+      <c r="T98" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="U97" s="8" t="s">
+      <c r="U98" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="V97" s="8"/>
-      <c r="W97" s="9">
+      <c r="V98" s="8"/>
+      <c r="W98" s="9">
         <v>241312</v>
       </c>
-      <c r="X97" s="8" t="s">
+      <c r="X98" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="Y97" s="8">
-        <v>1</v>
-      </c>
-      <c r="AA97" s="1"/>
-      <c r="AB97" s="1"/>
-      <c r="AC97" s="1"/>
-      <c r="AD97" s="1"/>
-      <c r="AE97" s="1"/>
-      <c r="AF97" s="1"/>
-    </row>
-    <row r="98" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="N98" s="2">
-        <v>3</v>
-      </c>
-      <c r="O98" s="2">
-        <v>1</v>
-      </c>
-      <c r="P98" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q98" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="R98" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="S98" s="2">
-        <v>3</v>
-      </c>
-      <c r="T98" s="2">
-        <v>2</v>
-      </c>
-      <c r="U98" s="2">
-        <v>2</v>
-      </c>
-      <c r="V98" s="2"/>
-      <c r="W98" s="13">
-        <v>241313</v>
-      </c>
-      <c r="X98" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="Y98" s="12">
+      <c r="Y98" s="8">
         <v>1</v>
       </c>
       <c r="AA98" s="1"/>
@@ -7038,45 +7085,39 @@
       <c r="AF98" s="1"/>
     </row>
     <row r="99" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="C99" t="s">
-        <v>18</v>
-      </c>
-      <c r="E99" t="s">
-        <v>19</v>
-      </c>
       <c r="N99" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O99" s="2">
         <v>1</v>
       </c>
       <c r="P99" s="2" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="Q99" s="2" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="R99" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="S99" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="T99" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="U99" s="2" t="s">
-        <v>27</v>
+      <c r="S99" s="2">
+        <v>3</v>
+      </c>
+      <c r="T99" s="2">
+        <v>2</v>
+      </c>
+      <c r="U99" s="2">
+        <v>2</v>
       </c>
       <c r="V99" s="2"/>
       <c r="W99" s="13">
-        <v>241311</v>
+        <v>241313</v>
       </c>
       <c r="X99" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="Y99" s="2">
-        <v>2</v>
+      <c r="Y99" s="12">
+        <v>1</v>
       </c>
       <c r="AA99" s="1"/>
       <c r="AB99" s="1"/>
@@ -7086,38 +7127,44 @@
       <c r="AF99" s="1"/>
     </row>
     <row r="100" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="N100" s="8">
-        <v>5</v>
-      </c>
-      <c r="O100" s="8">
+      <c r="C100" t="s">
+        <v>18</v>
+      </c>
+      <c r="E100" t="s">
+        <v>19</v>
+      </c>
+      <c r="N100" s="2">
+        <v>4</v>
+      </c>
+      <c r="O100" s="2">
         <v>1</v>
       </c>
-      <c r="P100" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q100" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="R100" s="8" t="s">
+      <c r="P100" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="S100" s="8">
-        <v>2</v>
-      </c>
-      <c r="T100" s="15" t="s">
+      <c r="Q100" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="U100" s="15" t="s">
+      <c r="R100" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="S100" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="T100" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="U100" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="V100" s="8"/>
-      <c r="W100" s="9">
-        <v>241314</v>
-      </c>
-      <c r="X100" s="8" t="s">
+      <c r="V100" s="2"/>
+      <c r="W100" s="13">
+        <v>241311</v>
+      </c>
+      <c r="X100" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="Y100" s="8">
+      <c r="Y100" s="2">
         <v>2</v>
       </c>
       <c r="AA100" s="1"/>
@@ -7128,38 +7175,38 @@
       <c r="AF100" s="1"/>
     </row>
     <row r="101" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="N101" s="5">
-        <v>6</v>
-      </c>
-      <c r="O101" s="5">
+      <c r="N101" s="8">
+        <v>5</v>
+      </c>
+      <c r="O101" s="8">
         <v>1</v>
       </c>
-      <c r="P101" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q101" s="5" t="s">
+      <c r="P101" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q101" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="R101" s="5" t="s">
+      <c r="R101" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="S101" s="5">
-        <v>6</v>
-      </c>
-      <c r="T101" s="5">
+      <c r="S101" s="8">
         <v>2</v>
       </c>
-      <c r="U101" s="5" t="s">
+      <c r="T101" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="U101" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="V101" s="5"/>
-      <c r="W101" s="6">
-        <v>241315</v>
-      </c>
-      <c r="X101" s="5" t="s">
+      <c r="V101" s="8"/>
+      <c r="W101" s="9">
+        <v>241314</v>
+      </c>
+      <c r="X101" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="Y101" s="5">
+      <c r="Y101" s="8">
         <v>2</v>
       </c>
       <c r="AA101" s="1"/>
@@ -7170,24 +7217,40 @@
       <c r="AF101" s="1"/>
     </row>
     <row r="102" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="G102" t="s">
-        <v>21</v>
-      </c>
-      <c r="J102" t="s">
-        <v>22</v>
-      </c>
-      <c r="N102" s="1"/>
-      <c r="O102" s="1"/>
-      <c r="P102" s="1"/>
-      <c r="Q102" s="1"/>
-      <c r="R102" s="1"/>
-      <c r="S102" s="1"/>
-      <c r="T102" s="1"/>
-      <c r="U102" s="1"/>
-      <c r="V102" s="1"/>
-      <c r="W102" s="1"/>
-      <c r="X102" s="1"/>
-      <c r="Y102" s="1"/>
+      <c r="N102" s="5">
+        <v>6</v>
+      </c>
+      <c r="O102" s="5">
+        <v>1</v>
+      </c>
+      <c r="P102" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q102" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="R102" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="S102" s="5">
+        <v>6</v>
+      </c>
+      <c r="T102" s="5">
+        <v>2</v>
+      </c>
+      <c r="U102" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="V102" s="5"/>
+      <c r="W102" s="6">
+        <v>241315</v>
+      </c>
+      <c r="X102" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y102" s="5">
+        <v>2</v>
+      </c>
       <c r="AA102" s="1"/>
       <c r="AB102" s="1"/>
       <c r="AC102" s="1"/>
@@ -7196,6 +7259,12 @@
       <c r="AF102" s="1"/>
     </row>
     <row r="103" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="G103" t="s">
+        <v>21</v>
+      </c>
+      <c r="J103" t="s">
+        <v>22</v>
+      </c>
       <c r="N103" s="1"/>
       <c r="O103" s="1"/>
       <c r="P103" s="1"/>
@@ -7275,199 +7344,177 @@
       <c r="AE106" s="1"/>
       <c r="AF106" s="1"/>
     </row>
-    <row r="108" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A108" s="3" t="s">
+    <row r="107" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="N107" s="1"/>
+      <c r="O107" s="1"/>
+      <c r="P107" s="1"/>
+      <c r="Q107" s="1"/>
+      <c r="R107" s="1"/>
+      <c r="S107" s="1"/>
+      <c r="T107" s="1"/>
+      <c r="U107" s="1"/>
+      <c r="V107" s="1"/>
+      <c r="W107" s="1"/>
+      <c r="X107" s="1"/>
+      <c r="Y107" s="1"/>
+      <c r="AA107" s="1"/>
+      <c r="AB107" s="1"/>
+      <c r="AC107" s="1"/>
+      <c r="AD107" s="1"/>
+      <c r="AE107" s="1"/>
+      <c r="AF107" s="1"/>
+    </row>
+    <row r="109" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A109" s="3" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="109" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="N109" s="1" t="s">
+    <row r="110" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="N110" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="O109" s="1" t="s">
+      <c r="O110" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="P109" s="1" t="s">
+      <c r="P110" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="Q109" s="1" t="s">
+      <c r="Q110" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="R109" s="1" t="s">
+      <c r="R110" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="S109" s="1" t="s">
+      <c r="S110" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="T109" s="1" t="s">
+      <c r="T110" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="U109" s="1" t="s">
+      <c r="U110" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="V109" s="1" t="s">
+      <c r="V110" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="W109" s="1" t="s">
+      <c r="W110" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="X109" s="1" t="s">
+      <c r="X110" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="Y109" s="2" t="s">
+      <c r="Y110" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="AA109" s="1" t="s">
+      <c r="AA110" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="AB109" s="1" t="s">
+      <c r="AB110" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="AC109" s="1" t="s">
+      <c r="AC110" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="AD109" s="1" t="s">
+      <c r="AD110" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="AE109" s="1" t="s">
+      <c r="AE110" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="AF109" s="1" t="s">
+      <c r="AF110" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="110" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A110" s="3" t="s">
+    <row r="111" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A111" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="N110" s="1">
+      <c r="N111" s="1">
         <v>1</v>
       </c>
-      <c r="O110" s="1">
+      <c r="O111" s="1">
         <v>1</v>
       </c>
-      <c r="P110" s="1" t="s">
+      <c r="P111" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="Q110" s="1" t="s">
+      <c r="Q111" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="R110" s="1" t="s">
+      <c r="R111" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="S110" s="1" t="s">
+      <c r="S111" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="T110" s="1" t="s">
+      <c r="T111" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="U110" s="1" t="s">
+      <c r="U111" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="V110" s="1"/>
-      <c r="W110" s="4">
+      <c r="V111" s="1"/>
+      <c r="W111" s="4">
         <v>241311</v>
       </c>
-      <c r="X110" s="1" t="s">
+      <c r="X111" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="Y110" s="1">
+      <c r="Y111" s="1">
         <v>1</v>
       </c>
-      <c r="AA110" s="1">
+      <c r="AA111" s="1">
         <v>1</v>
       </c>
-      <c r="AB110" s="1" t="s">
+      <c r="AB111" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AC110" s="5">
+      <c r="AC111" s="5">
         <v>7</v>
       </c>
-      <c r="AD110" s="5">
+      <c r="AD111" s="5">
         <v>5</v>
       </c>
-      <c r="AE110" s="8" t="s">
+      <c r="AE111" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="AF110" s="15">
+      <c r="AF111" s="15">
         <v>2</v>
       </c>
     </row>
-    <row r="111" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="N111" s="8">
+    <row r="112" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="N112" s="8">
         <v>2</v>
       </c>
-      <c r="O111" s="8">
+      <c r="O112" s="8">
         <v>1</v>
       </c>
-      <c r="P111" s="8" t="s">
+      <c r="P112" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="Q111" s="8" t="s">
+      <c r="Q112" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="R111" s="8" t="s">
+      <c r="R112" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="S111" s="8">
+      <c r="S112" s="8">
         <v>2</v>
       </c>
-      <c r="T111" s="8" t="s">
+      <c r="T112" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="U111" s="8" t="s">
+      <c r="U112" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="V111" s="8"/>
-      <c r="W111" s="9">
+      <c r="V112" s="8"/>
+      <c r="W112" s="9">
         <v>241312</v>
       </c>
-      <c r="X111" s="8" t="s">
+      <c r="X112" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="Y111" s="8">
-        <v>1</v>
-      </c>
-      <c r="AA111" s="1"/>
-      <c r="AB111" s="1"/>
-      <c r="AC111" s="1"/>
-      <c r="AD111" s="1"/>
-      <c r="AE111" s="1"/>
-      <c r="AF111" s="1"/>
-    </row>
-    <row r="112" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="N112" s="2">
-        <v>3</v>
-      </c>
-      <c r="O112" s="2">
-        <v>1</v>
-      </c>
-      <c r="P112" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q112" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="R112" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="S112" s="2">
-        <v>3</v>
-      </c>
-      <c r="T112" s="2">
-        <v>2</v>
-      </c>
-      <c r="U112" s="2">
-        <v>2</v>
-      </c>
-      <c r="V112" s="2"/>
-      <c r="W112" s="13">
-        <v>241313</v>
-      </c>
-      <c r="X112" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="Y112" s="12">
+      <c r="Y112" s="8">
         <v>1</v>
       </c>
       <c r="AA112" s="1"/>
@@ -7479,38 +7526,38 @@
     </row>
     <row r="113" spans="1:32" x14ac:dyDescent="0.2">
       <c r="N113" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O113" s="2">
         <v>1</v>
       </c>
       <c r="P113" s="2" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="Q113" s="2" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="R113" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="S113" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="T113" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="U113" s="2" t="s">
-        <v>27</v>
+      <c r="S113" s="2">
+        <v>3</v>
+      </c>
+      <c r="T113" s="2">
+        <v>2</v>
+      </c>
+      <c r="U113" s="2">
+        <v>2</v>
       </c>
       <c r="V113" s="2"/>
       <c r="W113" s="13">
-        <v>241311</v>
+        <v>241313</v>
       </c>
       <c r="X113" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="Y113" s="2">
-        <v>2</v>
+      <c r="Y113" s="12">
+        <v>1</v>
       </c>
       <c r="AA113" s="1"/>
       <c r="AB113" s="1"/>
@@ -7520,38 +7567,38 @@
       <c r="AF113" s="1"/>
     </row>
     <row r="114" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="N114" s="8">
-        <v>5</v>
-      </c>
-      <c r="O114" s="8">
+      <c r="N114" s="2">
+        <v>4</v>
+      </c>
+      <c r="O114" s="2">
         <v>1</v>
       </c>
-      <c r="P114" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q114" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="R114" s="8" t="s">
+      <c r="P114" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="S114" s="8">
-        <v>2</v>
-      </c>
-      <c r="T114" s="15" t="s">
+      <c r="Q114" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="U114" s="15" t="s">
+      <c r="R114" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="S114" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="T114" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="U114" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="V114" s="8"/>
-      <c r="W114" s="9">
-        <v>241314</v>
-      </c>
-      <c r="X114" s="8" t="s">
+      <c r="V114" s="2"/>
+      <c r="W114" s="13">
+        <v>241311</v>
+      </c>
+      <c r="X114" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="Y114" s="8">
+      <c r="Y114" s="2">
         <v>2</v>
       </c>
       <c r="AA114" s="1"/>
@@ -7562,38 +7609,38 @@
       <c r="AF114" s="1"/>
     </row>
     <row r="115" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="N115" s="2">
-        <v>6</v>
-      </c>
-      <c r="O115" s="2">
+      <c r="N115" s="8">
+        <v>5</v>
+      </c>
+      <c r="O115" s="8">
         <v>1</v>
       </c>
-      <c r="P115" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q115" s="2" t="s">
+      <c r="P115" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q115" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="R115" s="2" t="s">
+      <c r="R115" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="S115" s="2">
-        <v>6</v>
-      </c>
-      <c r="T115" s="2">
+      <c r="S115" s="8">
         <v>2</v>
       </c>
-      <c r="U115" s="2" t="s">
+      <c r="T115" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="U115" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="V115" s="2"/>
-      <c r="W115" s="13">
-        <v>241315</v>
-      </c>
-      <c r="X115" s="2" t="s">
+      <c r="V115" s="8"/>
+      <c r="W115" s="9">
+        <v>241314</v>
+      </c>
+      <c r="X115" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="Y115" s="2">
+      <c r="Y115" s="8">
         <v>2</v>
       </c>
       <c r="AA115" s="1"/>
@@ -7604,47 +7651,38 @@
       <c r="AF115" s="1"/>
     </row>
     <row r="116" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A116" t="s">
-        <v>18</v>
-      </c>
-      <c r="C116" t="s">
-        <v>19</v>
-      </c>
-      <c r="J116" t="s">
-        <v>20</v>
-      </c>
-      <c r="N116" s="5">
-        <v>7</v>
-      </c>
-      <c r="O116" s="5">
+      <c r="N116" s="2">
+        <v>6</v>
+      </c>
+      <c r="O116" s="2">
         <v>1</v>
       </c>
-      <c r="P116" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q116" s="5" t="s">
+      <c r="P116" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q116" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="R116" s="5" t="s">
+      <c r="R116" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="S116" s="5">
-        <v>7</v>
-      </c>
-      <c r="T116" s="5">
+      <c r="S116" s="2">
         <v>6</v>
       </c>
-      <c r="U116" s="5" t="s">
+      <c r="T116" s="2">
+        <v>2</v>
+      </c>
+      <c r="U116" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="V116" s="5"/>
-      <c r="W116" s="6">
-        <v>241316</v>
-      </c>
-      <c r="X116" s="5" t="s">
+      <c r="V116" s="2"/>
+      <c r="W116" s="13">
+        <v>241315</v>
+      </c>
+      <c r="X116" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="Y116" s="5">
+      <c r="Y116" s="2">
         <v>2</v>
       </c>
       <c r="AA116" s="1"/>
@@ -7655,18 +7693,49 @@
       <c r="AF116" s="1"/>
     </row>
     <row r="117" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="N117" s="1"/>
-      <c r="O117" s="1"/>
-      <c r="P117" s="1"/>
-      <c r="Q117" s="1"/>
-      <c r="R117" s="1"/>
-      <c r="S117" s="1"/>
-      <c r="T117" s="1"/>
-      <c r="U117" s="1"/>
-      <c r="V117" s="1"/>
-      <c r="W117" s="1"/>
-      <c r="X117" s="1"/>
-      <c r="Y117" s="1"/>
+      <c r="A117" t="s">
+        <v>18</v>
+      </c>
+      <c r="C117" t="s">
+        <v>19</v>
+      </c>
+      <c r="J117" t="s">
+        <v>20</v>
+      </c>
+      <c r="N117" s="5">
+        <v>7</v>
+      </c>
+      <c r="O117" s="5">
+        <v>1</v>
+      </c>
+      <c r="P117" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q117" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="R117" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="S117" s="5">
+        <v>7</v>
+      </c>
+      <c r="T117" s="5">
+        <v>6</v>
+      </c>
+      <c r="U117" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="V117" s="5"/>
+      <c r="W117" s="6">
+        <v>241316</v>
+      </c>
+      <c r="X117" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y117" s="5">
+        <v>2</v>
+      </c>
       <c r="AA117" s="1"/>
       <c r="AB117" s="1"/>
       <c r="AC117" s="1"/>
@@ -7695,12 +7764,6 @@
       <c r="AF118" s="1"/>
     </row>
     <row r="119" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="E119" t="s">
-        <v>21</v>
-      </c>
-      <c r="H119" t="s">
-        <v>22</v>
-      </c>
       <c r="N119" s="1"/>
       <c r="O119" s="1"/>
       <c r="P119" s="1"/>
@@ -7721,6 +7784,12 @@
       <c r="AF119" s="1"/>
     </row>
     <row r="120" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="E120" t="s">
+        <v>21</v>
+      </c>
+      <c r="H120" t="s">
+        <v>22</v>
+      </c>
       <c r="N120" s="1"/>
       <c r="O120" s="1"/>
       <c r="P120" s="1"/>
@@ -7740,199 +7809,177 @@
       <c r="AE120" s="1"/>
       <c r="AF120" s="1"/>
     </row>
-    <row r="125" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A125" s="3" t="s">
+    <row r="121" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="N121" s="1"/>
+      <c r="O121" s="1"/>
+      <c r="P121" s="1"/>
+      <c r="Q121" s="1"/>
+      <c r="R121" s="1"/>
+      <c r="S121" s="1"/>
+      <c r="T121" s="1"/>
+      <c r="U121" s="1"/>
+      <c r="V121" s="1"/>
+      <c r="W121" s="1"/>
+      <c r="X121" s="1"/>
+      <c r="Y121" s="1"/>
+      <c r="AA121" s="1"/>
+      <c r="AB121" s="1"/>
+      <c r="AC121" s="1"/>
+      <c r="AD121" s="1"/>
+      <c r="AE121" s="1"/>
+      <c r="AF121" s="1"/>
+    </row>
+    <row r="126" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A126" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="126" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="N126" s="1" t="s">
+    <row r="127" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="N127" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="O126" s="1" t="s">
+      <c r="O127" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="P126" s="1" t="s">
+      <c r="P127" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="Q126" s="1" t="s">
+      <c r="Q127" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="R126" s="1" t="s">
+      <c r="R127" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="S126" s="1" t="s">
+      <c r="S127" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="T126" s="1" t="s">
+      <c r="T127" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="U126" s="1" t="s">
+      <c r="U127" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="V126" s="1" t="s">
+      <c r="V127" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="W126" s="1" t="s">
+      <c r="W127" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="X126" s="1" t="s">
+      <c r="X127" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="Y126" s="2" t="s">
+      <c r="Y127" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="AA126" s="1" t="s">
+      <c r="AA127" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="AB126" s="1" t="s">
+      <c r="AB127" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="AC126" s="1" t="s">
+      <c r="AC127" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="AD126" s="1" t="s">
+      <c r="AD127" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="AE126" s="1" t="s">
+      <c r="AE127" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="AF126" s="1" t="s">
+      <c r="AF127" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="127" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A127" s="3" t="s">
+    <row r="128" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A128" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="N127" s="1">
+      <c r="N128" s="1">
         <v>1</v>
       </c>
-      <c r="O127" s="1">
+      <c r="O128" s="1">
         <v>1</v>
       </c>
-      <c r="P127" s="1" t="s">
+      <c r="P128" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="Q127" s="1" t="s">
+      <c r="Q128" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="R127" s="1" t="s">
+      <c r="R128" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="S127" s="1" t="s">
+      <c r="S128" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="T127" s="1" t="s">
+      <c r="T128" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="U127" s="1" t="s">
+      <c r="U128" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="V127" s="1"/>
-      <c r="W127" s="4">
+      <c r="V128" s="1"/>
+      <c r="W128" s="4">
         <v>241311</v>
       </c>
-      <c r="X127" s="1" t="s">
+      <c r="X128" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="Y127" s="1">
+      <c r="Y128" s="1">
         <v>1</v>
       </c>
-      <c r="AA127" s="1">
+      <c r="AA128" s="1">
         <v>1</v>
       </c>
-      <c r="AB127" s="1" t="s">
+      <c r="AB128" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AC127" s="5">
+      <c r="AC128" s="5">
         <v>5</v>
       </c>
-      <c r="AD127" s="5" t="s">
+      <c r="AD128" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="AE127" s="8" t="s">
+      <c r="AE128" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="AF127" s="15">
+      <c r="AF128" s="15">
         <v>2</v>
       </c>
     </row>
-    <row r="128" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="N128" s="8">
+    <row r="129" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="N129" s="8">
         <v>2</v>
       </c>
-      <c r="O128" s="8">
+      <c r="O129" s="8">
         <v>1</v>
       </c>
-      <c r="P128" s="8" t="s">
+      <c r="P129" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="Q128" s="8" t="s">
+      <c r="Q129" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="R128" s="8" t="s">
+      <c r="R129" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="S128" s="8">
+      <c r="S129" s="8">
         <v>2</v>
       </c>
-      <c r="T128" s="8" t="s">
+      <c r="T129" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="U128" s="8" t="s">
+      <c r="U129" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="V128" s="8"/>
-      <c r="W128" s="9">
+      <c r="V129" s="8"/>
+      <c r="W129" s="9">
         <v>241312</v>
       </c>
-      <c r="X128" s="8" t="s">
+      <c r="X129" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="Y128" s="8">
-        <v>1</v>
-      </c>
-      <c r="AA128" s="1"/>
-      <c r="AB128" s="1"/>
-      <c r="AC128" s="1"/>
-      <c r="AD128" s="1"/>
-      <c r="AE128" s="1"/>
-      <c r="AF128" s="1"/>
-    </row>
-    <row r="129" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="N129" s="2">
-        <v>3</v>
-      </c>
-      <c r="O129" s="2">
-        <v>1</v>
-      </c>
-      <c r="P129" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q129" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="R129" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="S129" s="2">
-        <v>3</v>
-      </c>
-      <c r="T129" s="2">
-        <v>2</v>
-      </c>
-      <c r="U129" s="2">
-        <v>2</v>
-      </c>
-      <c r="V129" s="2"/>
-      <c r="W129" s="13">
-        <v>241313</v>
-      </c>
-      <c r="X129" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="Y129" s="12">
+      <c r="Y129" s="8">
         <v>1</v>
       </c>
       <c r="AA129" s="1"/>
@@ -7943,39 +7990,39 @@
       <c r="AF129" s="1"/>
     </row>
     <row r="130" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="N130" s="16">
-        <v>4</v>
-      </c>
-      <c r="O130" s="16">
+      <c r="N130" s="2">
+        <v>3</v>
+      </c>
+      <c r="O130" s="2">
         <v>1</v>
       </c>
-      <c r="P130" s="16" t="s">
+      <c r="P130" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q130" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="R130" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="Q130" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="R130" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="S130" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="T130" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="U130" s="16" t="s">
+      <c r="S130" s="2">
+        <v>3</v>
+      </c>
+      <c r="T130" s="2">
+        <v>2</v>
+      </c>
+      <c r="U130" s="2">
+        <v>2</v>
+      </c>
+      <c r="V130" s="2"/>
+      <c r="W130" s="13">
+        <v>241313</v>
+      </c>
+      <c r="X130" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="V130" s="16"/>
-      <c r="W130" s="17">
-        <v>241311</v>
-      </c>
-      <c r="X130" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="Y130" s="16">
-        <v>2</v>
+      <c r="Y130" s="12">
+        <v>1</v>
       </c>
       <c r="AA130" s="1"/>
       <c r="AB130" s="1"/>
@@ -7986,32 +8033,32 @@
     </row>
     <row r="131" spans="1:32" x14ac:dyDescent="0.2">
       <c r="N131" s="16">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O131" s="16">
         <v>1</v>
       </c>
       <c r="P131" s="16" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="Q131" s="16" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="R131" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="S131" s="16">
-        <v>2</v>
-      </c>
-      <c r="T131" s="18" t="s">
+      <c r="S131" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="U131" s="18" t="s">
+      <c r="T131" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="U131" s="16" t="s">
         <v>27</v>
       </c>
       <c r="V131" s="16"/>
       <c r="W131" s="17">
-        <v>241314</v>
+        <v>241311</v>
       </c>
       <c r="X131" s="16" t="s">
         <v>27</v>
@@ -8028,13 +8075,13 @@
     </row>
     <row r="132" spans="1:32" x14ac:dyDescent="0.2">
       <c r="N132" s="16">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O132" s="16">
         <v>1</v>
       </c>
       <c r="P132" s="16" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="Q132" s="16" t="s">
         <v>31</v>
@@ -8043,17 +8090,17 @@
         <v>25</v>
       </c>
       <c r="S132" s="16">
-        <v>6</v>
-      </c>
-      <c r="T132" s="16">
         <v>2</v>
       </c>
-      <c r="U132" s="16" t="s">
+      <c r="T132" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="U132" s="18" t="s">
         <v>27</v>
       </c>
       <c r="V132" s="16"/>
       <c r="W132" s="17">
-        <v>241315</v>
+        <v>241314</v>
       </c>
       <c r="X132" s="16" t="s">
         <v>27</v>
@@ -8069,23 +8116,14 @@
       <c r="AF132" s="1"/>
     </row>
     <row r="133" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A133" t="s">
-        <v>18</v>
-      </c>
-      <c r="C133" t="s">
-        <v>19</v>
-      </c>
-      <c r="J133" t="s">
-        <v>20</v>
-      </c>
       <c r="N133" s="16">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O133" s="16">
         <v>1</v>
       </c>
       <c r="P133" s="16" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="Q133" s="16" t="s">
         <v>31</v>
@@ -8094,17 +8132,17 @@
         <v>25</v>
       </c>
       <c r="S133" s="16">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="T133" s="16">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="U133" s="16" t="s">
         <v>27</v>
       </c>
       <c r="V133" s="16"/>
       <c r="W133" s="17">
-        <v>241316</v>
+        <v>241315</v>
       </c>
       <c r="X133" s="16" t="s">
         <v>27</v>
@@ -8120,14 +8158,23 @@
       <c r="AF133" s="1"/>
     </row>
     <row r="134" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
+        <v>18</v>
+      </c>
+      <c r="C134" t="s">
+        <v>19</v>
+      </c>
+      <c r="J134" t="s">
+        <v>20</v>
+      </c>
       <c r="N134" s="16">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O134" s="16">
         <v>1</v>
       </c>
       <c r="P134" s="16" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="Q134" s="16" t="s">
         <v>31</v>
@@ -8136,17 +8183,17 @@
         <v>25</v>
       </c>
       <c r="S134" s="16">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T134" s="16">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="U134" s="16" t="s">
         <v>27</v>
       </c>
       <c r="V134" s="16"/>
       <c r="W134" s="17">
-        <v>241317</v>
+        <v>241316</v>
       </c>
       <c r="X134" s="16" t="s">
         <v>27</v>
@@ -8162,18 +8209,40 @@
       <c r="AF134" s="1"/>
     </row>
     <row r="135" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="N135" s="1"/>
-      <c r="O135" s="1"/>
-      <c r="P135" s="1"/>
-      <c r="Q135" s="1"/>
-      <c r="R135" s="1"/>
-      <c r="S135" s="1"/>
-      <c r="T135" s="1"/>
-      <c r="U135" s="1"/>
-      <c r="V135" s="1"/>
-      <c r="W135" s="1"/>
-      <c r="X135" s="1"/>
-      <c r="Y135" s="1"/>
+      <c r="N135" s="16">
+        <v>8</v>
+      </c>
+      <c r="O135" s="16">
+        <v>1</v>
+      </c>
+      <c r="P135" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q135" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="R135" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="S135" s="16">
+        <v>5</v>
+      </c>
+      <c r="T135" s="16">
+        <v>7</v>
+      </c>
+      <c r="U135" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="V135" s="16"/>
+      <c r="W135" s="17">
+        <v>241317</v>
+      </c>
+      <c r="X135" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y135" s="16">
+        <v>2</v>
+      </c>
       <c r="AA135" s="1"/>
       <c r="AB135" s="1"/>
       <c r="AC135" s="1"/>
@@ -8182,12 +8251,6 @@
       <c r="AF135" s="1"/>
     </row>
     <row r="136" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="E136" t="s">
-        <v>21</v>
-      </c>
-      <c r="H136" t="s">
-        <v>22</v>
-      </c>
       <c r="N136" s="1"/>
       <c r="O136" s="1"/>
       <c r="P136" s="1"/>
@@ -8208,6 +8271,12 @@
       <c r="AF136" s="1"/>
     </row>
     <row r="137" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="E137" t="s">
+        <v>21</v>
+      </c>
+      <c r="H137" t="s">
+        <v>22</v>
+      </c>
       <c r="N137" s="1"/>
       <c r="O137" s="1"/>
       <c r="P137" s="1"/>
@@ -8227,9 +8296,194 @@
       <c r="AE137" s="1"/>
       <c r="AF137" s="1"/>
     </row>
+    <row r="138" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="N138" s="1"/>
+      <c r="O138" s="1"/>
+      <c r="P138" s="1"/>
+      <c r="Q138" s="1"/>
+      <c r="R138" s="1"/>
+      <c r="S138" s="1"/>
+      <c r="T138" s="1"/>
+      <c r="U138" s="1"/>
+      <c r="V138" s="1"/>
+      <c r="W138" s="1"/>
+      <c r="X138" s="1"/>
+      <c r="Y138" s="1"/>
+      <c r="AA138" s="1"/>
+      <c r="AB138" s="1"/>
+      <c r="AC138" s="1"/>
+      <c r="AD138" s="1"/>
+      <c r="AE138" s="1"/>
+      <c r="AF138" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H30" sqref="H30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>76</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/JWorkflow/Design DB and Behavior.xlsx
+++ b/JWorkflow/Design DB and Behavior.xlsx
@@ -8328,7 +8328,7 @@
   <dimension ref="A1:A35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+      <selection activeCell="R8" sqref="R8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/JWorkflow/Design DB and Behavior.xlsx
+++ b/JWorkflow/Design DB and Behavior.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="105" windowWidth="27795" windowHeight="12585" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="165" windowWidth="27795" windowHeight="12525"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet3" sheetId="1" r:id="rId1"/>
@@ -5120,7 +5120,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A7:AF138"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="T10" workbookViewId="0">
+      <selection activeCell="AA24" sqref="AA24:AF24"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -5494,56 +5496,56 @@
       <c r="A24" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="N24" s="1">
+      <c r="N24" s="5">
         <v>1</v>
       </c>
-      <c r="O24" s="1">
+      <c r="O24" s="5">
         <v>1</v>
       </c>
-      <c r="P24" s="1" t="s">
+      <c r="P24" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="Q24" s="1" t="s">
+      <c r="Q24" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="R24" s="1" t="s">
+      <c r="R24" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="S24" s="1" t="s">
+      <c r="S24" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="T24" s="1" t="s">
+      <c r="T24" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="U24" s="1" t="s">
+      <c r="U24" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="V24" s="1"/>
-      <c r="W24" s="4">
+      <c r="V24" s="5"/>
+      <c r="W24" s="6">
         <v>241311</v>
       </c>
-      <c r="X24" s="1" t="s">
+      <c r="X24" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="Y24" s="1">
+      <c r="Y24" s="5">
         <v>1</v>
       </c>
-      <c r="AA24" s="1">
+      <c r="AA24" s="5">
         <v>1</v>
       </c>
-      <c r="AB24" s="1" t="s">
+      <c r="AB24" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AC24" s="1" t="s">
+      <c r="AC24" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="AD24" s="1">
+      <c r="AD24" s="5">
         <v>2</v>
       </c>
-      <c r="AE24" s="1" t="s">
+      <c r="AE24" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="AF24" s="1">
+      <c r="AF24" s="5">
         <v>1</v>
       </c>
     </row>
@@ -8327,7 +8329,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="R8" sqref="R8"/>
     </sheetView>
   </sheetViews>
